--- a/conejo/formatted_data.xlsx
+++ b/conejo/formatted_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CEA3A4-9F61-4646-B5EC-CD1897423060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5362834D-3E9A-4667-9A74-9EC8BA86C0B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <autoFilter ref="A1:M101" xr:uid="{3E102DA1-9D67-42AF-89EF-2EC99EBEC2BA}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9FFFB1AD-8AA2-4576-9A62-F2B5575162E1}" uniqueName="1" name="Bus #" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AACEDBFC-10D2-49B0-A7D0-CC5D01B5EDAB}" uniqueName="2" name="Gen Type" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AACEDBFC-10D2-49B0-A7D0-CC5D01B5EDAB}" uniqueName="2" name="Gen Type" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{43BBEC89-052E-455E-BC42-619D22857D54}" uniqueName="3" name="Bus ID #" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{93340665-E2D4-4863-BF4C-E5AE011A0E7E}" uniqueName="4" name="Pgen" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C5CA14A4-73A2-401F-BBFF-2EEFC2B50508}" uniqueName="5" name="Qgen " queryTableFieldId="5"/>
@@ -951,7 +951,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0A57F45-AC3E-41D1-8307-A9F753455909}" name="lines_mod" displayName="lines_mod" ref="A1:N121" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:N121" xr:uid="{427D55AC-E4CC-4702-8116-E6A867A1E746}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B6B6A510-3601-446A-A8E8-27038745CC75}" uniqueName="1" name="ID #" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B6B6A510-3601-446A-A8E8-27038745CC75}" uniqueName="1" name="ID #" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{82005542-E837-49AC-B6F6-64B1A25E687E}" uniqueName="2" name="From Bus" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{55084276-1E30-4EED-AF3D-CC88F71BE4AD}" uniqueName="3" name="To Bus" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C750F9C4-E6CB-4424-8D6C-FA21A613E72C}" uniqueName="4" name="L - miles" queryTableFieldId="4"/>
@@ -1273,13 +1273,13 @@
       <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>118</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>124</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>201</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>202</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>203</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>204</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>205</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>206</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>207</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>208</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>209</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>210</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>211</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>212</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>213</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>214</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>215</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>216</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>217</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>218</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>219</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>220</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>221</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>222</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>223</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>224</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>301</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>302</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>303</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>304</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>305</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>306</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>307</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>308</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>309</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>310</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>311</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>312</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>313</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>314</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>315</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>316</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>317</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>318</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>319</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>320</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>321</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>322</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>323</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>324</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>325</v>
       </c>
@@ -3885,12 +3885,12 @@
       <selection activeCell="M68" sqref="M68:M100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0.81030000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0.85560000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0.87280000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>102</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0.91520000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0.92449999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>107</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>107</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0.98560000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>107</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0.89029999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>113</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>0.79310000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>113</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0.9677</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>114</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.84640000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>115</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>115</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0.90620000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>115</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0.9718</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>115</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>115</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>0.8901</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0.83960000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>1.0454000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>118</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.94130000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0.96889999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>122</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0.84709999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>122</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>0.87660000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>122</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0.88639999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>122</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0.95489999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>122</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0.8861</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>122</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0.93510000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>0.7974</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>123</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0.88229999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>123</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0.85880000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>202</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>202</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>202</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>202</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>207</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>207</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>207</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>213</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>213</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>213</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>214</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>215</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>215</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>215</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>215</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>215</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>215</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>216</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>218</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>221</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>222</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>222</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>222</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>222</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>222</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>222</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>223</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>223</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>223</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>301</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1.0210999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>301</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1.1254</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>301</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>1.1141000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>301</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>1.1016999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>302</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1.0333000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>302</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1.1564000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>302</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1.1174999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>302</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>307</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>1.1011</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>307</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1.0869</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>307</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>1.0125</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>313</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>1.0857000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>313</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>1.0584</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>313</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>314</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>1.0422</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>315</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>1.0732999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>315</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>315</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1.1482000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>315</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>315</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>315</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>1.0983000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>316</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>1.0601</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>318</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1.1509</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>321</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>1.0932999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>322</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>1.0643</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>322</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1.1676</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>322</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1.0888</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>322</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1.0705</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>322</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>1.0852999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>322</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1.0576000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>323</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>323</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1.2262999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>323</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>1.1828000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
     </row>
   </sheetData>
@@ -8005,17 +8005,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>96</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>103</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>118</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>125</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>126</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>127</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>128</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>132</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>136</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>139</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>142</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>145</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>146</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>151</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>152</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>153</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>154</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>155</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>158</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>160</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>162</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>170</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>172</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>173</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>174</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>176</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>177</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>178</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>179</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>180</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>181</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>182</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>184</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>185</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>186</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>187</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>188</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>189</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>190</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>192</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>193</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>194</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>195</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>196</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>197</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>198</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>199</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>200</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>201</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>202</v>
       </c>

--- a/conejo/formatted_data.xlsx
+++ b/conejo/formatted_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5362834D-3E9A-4667-9A74-9EC8BA86C0B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D9BB5-8CA0-44D3-927F-B93D35153C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
@@ -8005,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9103,7 +9103,7 @@
         <v>0.158</v>
       </c>
       <c r="K25">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L25">
         <v>600</v>
@@ -9851,7 +9851,7 @@
         <v>0.155</v>
       </c>
       <c r="K42">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L42">
         <v>600</v>
@@ -13239,7 +13239,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="K119">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="L119">
         <v>600</v>
@@ -13283,7 +13283,7 @@
         <v>0.218</v>
       </c>
       <c r="K120">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L120">
         <v>600</v>

--- a/conejo/formatted_data.xlsx
+++ b/conejo/formatted_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D9BB5-8CA0-44D3-927F-B93D35153C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6942DF3-E2AB-44A2-9EC7-8C7A84B76E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="11160" yWindow="1455" windowWidth="14850" windowHeight="10200" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -1269,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB4950-8AF2-4919-9162-03A3918F6395}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
@@ -3881,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE3EA53-F01C-4E2B-BB06-AD151A3AC232}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68:M100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8575,7 +8575,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L13">
         <v>208</v>
@@ -9851,7 +9851,7 @@
         <v>0.155</v>
       </c>
       <c r="K42">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="L42">
         <v>600</v>
@@ -13239,7 +13239,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="K119">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="L119">
         <v>600</v>
@@ -13283,7 +13283,7 @@
         <v>0.218</v>
       </c>
       <c r="K120">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L120">
         <v>600</v>

--- a/conejo/formatted_data.xlsx
+++ b/conejo/formatted_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6942DF3-E2AB-44A2-9EC7-8C7A84B76E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A92BF20-120E-47A7-A288-37703C701984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="1455" windowWidth="14850" windowHeight="10200" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="8775" yWindow="2130" windowWidth="15720" windowHeight="12360" activeTab="1" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB4950-8AF2-4919-9162-03A3918F6395}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE3EA53-F01C-4E2B-BB06-AD151A3AC232}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68:M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5322,7 +5322,7 @@
         <v>34</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>1.0210999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5363,7 +5363,7 @@
         <v>35</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>1.1254</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,7 +5404,7 @@
         <v>36</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>1.1141000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
         <v>37</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>1.1016999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +5486,7 @@
         <v>38</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>1.0333000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>39</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>1.1564000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>40</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>1.1174999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5650,7 +5650,7 @@
         <v>42</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>1.1011</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>43</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>1.0869</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5773,7 +5773,7 @@
         <v>45</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>1.0857000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5814,7 +5814,7 @@
         <v>46</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>1.0584</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5855,7 +5855,7 @@
         <v>47</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>1.0509999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>48</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>1.0422</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5937,7 +5937,7 @@
         <v>49</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>1.0732999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,7 +5978,7 @@
         <v>50</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,7 +6019,7 @@
         <v>51</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>1.1482000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>1.1259999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -6101,7 +6101,7 @@
         <v>53</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -6142,7 +6142,7 @@
         <v>54</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>1.0983000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>55</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>1.0601</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>56</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>1.1509</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -6265,7 +6265,7 @@
         <v>57</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>1.0932999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -6306,7 +6306,7 @@
         <v>58</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>1.0643</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,7 +6347,7 @@
         <v>59</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>1.1676</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>60</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>1.0888</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
         <v>61</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6470,7 +6470,7 @@
         <v>62</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>1.0852999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
         <v>63</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>1.0576000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
         <v>64</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
         <v>65</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>1.2262999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>66</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>1.1828000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6675,7 +6675,7 @@
         <v>67</v>
       </c>
       <c r="M68">
-        <v>1.0210999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
         <v>68</v>
       </c>
       <c r="M69">
-        <v>1.1254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="M70">
-        <v>1.1141000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6798,7 +6798,7 @@
         <v>70</v>
       </c>
       <c r="M71">
-        <v>1.1016999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
         <v>71</v>
       </c>
       <c r="M72">
-        <v>1.0333000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6880,7 +6880,7 @@
         <v>72</v>
       </c>
       <c r="M73">
-        <v>1.1564000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
         <v>73</v>
       </c>
       <c r="M74">
-        <v>1.1174999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>74</v>
       </c>
       <c r="M75">
-        <v>1.085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -7003,7 +7003,7 @@
         <v>75</v>
       </c>
       <c r="M76">
-        <v>1.1011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
         <v>76</v>
       </c>
       <c r="M77">
-        <v>1.0869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -7085,7 +7085,7 @@
         <v>77</v>
       </c>
       <c r="M78">
-        <v>1.0125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -7126,7 +7126,7 @@
         <v>78</v>
       </c>
       <c r="M79">
-        <v>1.0857000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="M80">
-        <v>1.0584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -7208,7 +7208,7 @@
         <v>80</v>
       </c>
       <c r="M81">
-        <v>1.0509999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -7249,7 +7249,7 @@
         <v>81</v>
       </c>
       <c r="M82">
-        <v>1.0422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,7 +7290,7 @@
         <v>82</v>
       </c>
       <c r="M83">
-        <v>1.0732999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>83</v>
       </c>
       <c r="M84">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>84</v>
       </c>
       <c r="M85">
-        <v>1.1482000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -7413,7 +7413,7 @@
         <v>85</v>
       </c>
       <c r="M86">
-        <v>1.1259999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7454,7 +7454,7 @@
         <v>86</v>
       </c>
       <c r="M87">
-        <v>1.099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,7 +7495,7 @@
         <v>87</v>
       </c>
       <c r="M88">
-        <v>1.0983000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7536,7 +7536,7 @@
         <v>88</v>
       </c>
       <c r="M89">
-        <v>1.0601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7577,7 +7577,7 @@
         <v>89</v>
       </c>
       <c r="M90">
-        <v>1.1509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7618,7 +7618,7 @@
         <v>90</v>
       </c>
       <c r="M91">
-        <v>1.0932999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7659,7 +7659,7 @@
         <v>91</v>
       </c>
       <c r="M92">
-        <v>1.0643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7700,7 +7700,7 @@
         <v>92</v>
       </c>
       <c r="M93">
-        <v>1.1676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7741,7 +7741,7 @@
         <v>93</v>
       </c>
       <c r="M94">
-        <v>1.0888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7782,7 +7782,7 @@
         <v>94</v>
       </c>
       <c r="M95">
-        <v>1.0705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7823,7 +7823,7 @@
         <v>95</v>
       </c>
       <c r="M96">
-        <v>1.0852999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7864,7 +7864,7 @@
         <v>96</v>
       </c>
       <c r="M97">
-        <v>1.0576000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7905,7 +7905,7 @@
         <v>97</v>
       </c>
       <c r="M98">
-        <v>1.044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7946,7 +7946,7 @@
         <v>98</v>
       </c>
       <c r="M99">
-        <v>1.2262999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -7987,11 +7987,14 @@
         <v>99</v>
       </c>
       <c r="M100">
-        <v>1.1828000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
+      <c r="M101">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8005,8 +8008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
